--- a/Results/RFE/Speech/noMFCCs/speech_noMFCCs_sillabe_rfe.xlsx
+++ b/Results/RFE/Speech/noMFCCs/speech_noMFCCs_sillabe_rfe.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>F1 train</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         <v>0.7</v>
       </c>
       <c r="O2" t="n">
-        <v>0.885</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +617,7 @@
         <v>0.8</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7271486408328514</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
         <v>0.9</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8152255639097744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7554076367389062</v>
+        <v>0.7654320987654321</v>
       </c>
     </row>
     <row r="6">
@@ -782,7 +782,7 @@
         <v>0.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6906399482870071</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="7">
@@ -837,7 +837,7 @@
         <v>0.7</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8790247678018577</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>0.7</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7409523809523809</v>
+        <v>0.9736842105263158</v>
       </c>
     </row>
     <row r="9">
@@ -947,7 +947,7 @@
         <v>0.7</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8128571428571428</v>
+        <v>0.8493150684931506</v>
       </c>
     </row>
     <row r="10">
@@ -1002,7 +1002,7 @@
         <v>0.8</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7926050420168068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6440677966101694</v>
       </c>
     </row>
     <row r="12">
@@ -1112,7 +1112,7 @@
         <v>0.5</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8771794871794872</v>
+        <v>0.935064935064935</v>
       </c>
     </row>
     <row r="13">
@@ -1167,7 +1167,7 @@
         <v>0.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7245421245421245</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -1222,7 +1222,7 @@
         <v>0.8</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8092857142857144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1277,7 +1277,7 @@
         <v>0.7</v>
       </c>
       <c r="O15" t="n">
-        <v>0.754313725490196</v>
+        <v>0.868421052631579</v>
       </c>
     </row>
     <row r="16">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (32,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (64,), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O16" t="n">
-        <v>0.630566534914361</v>
+        <v>0.7466666666666667</v>
       </c>
     </row>
   </sheetData>
